--- a/RawData/criteriaLast.xlsx
+++ b/RawData/criteriaLast.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Beta</t>
   </si>
@@ -54,12 +54,6 @@
     <t>1Yr Sales Gwth</t>
   </si>
   <si>
-    <t>Hist Call Imp Vol Avg</t>
-  </si>
-  <si>
-    <t>Hist Put Imp Vol Avg</t>
-  </si>
-  <si>
     <t>Select</t>
   </si>
   <si>
@@ -99,58 +93,91 @@
     <t>CASH_ST_INVESTMENTS_PER_SH</t>
   </si>
   <si>
+    <t>GEO_GROW_DVD_PER_SH</t>
+  </si>
+  <si>
+    <t>T12M_NET_CAPITAL_STOCK</t>
+  </si>
+  <si>
+    <t>BEST_PE_RATIO</t>
+  </si>
+  <si>
+    <t>GEO_GROW_SALES_PER_SH</t>
+  </si>
+  <si>
+    <t>SALES_PER_SHARE_GROWTH</t>
+  </si>
+  <si>
+    <t>Mkt Cap</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>T12m total Distribution Yield</t>
+  </si>
+  <si>
+    <t>Est PE Ratio NxtYr</t>
+  </si>
+  <si>
+    <t>T12_FCF_YIELD</t>
+  </si>
+  <si>
+    <t>EQY_DPS_GROSS_1YR_GROWTH</t>
+  </si>
+  <si>
+    <t>T12_TOTAL_DISTRIBUTION_YIELD</t>
+  </si>
+  <si>
+    <t>PE_RATIO</t>
+  </si>
+  <si>
+    <t>EQY_DVD_YLD_IND</t>
+  </si>
+  <si>
+    <t>DVD_PAYOUT_RATIO</t>
+  </si>
+  <si>
     <t>EQY_DVD_YLD_12M</t>
   </si>
   <si>
+    <t>GEO_GROW_NET_SALES</t>
+  </si>
+  <si>
     <t>T12M_DVD_PAYOUT_RATIO</t>
   </si>
   <si>
-    <t>GEO_GROW_DVD_PER_SH</t>
-  </si>
-  <si>
-    <t>T12M_NET_CAPITAL_STOCK</t>
-  </si>
-  <si>
-    <t>BEST_PE_RATIO</t>
-  </si>
-  <si>
-    <t>BEST EST LONG TERM GROWTH</t>
-  </si>
-  <si>
-    <t>GEO_GROW_SALES_PER_SH</t>
-  </si>
-  <si>
-    <t>SALES_PER_SHARE_GROWTH</t>
-  </si>
-  <si>
-    <t>IVOL_CALL_3M_MOV_AVG_30D_HIST</t>
-  </si>
-  <si>
-    <t>IVOL_PUT_3M_MOV_AVG_30D_HIST</t>
-  </si>
-  <si>
-    <t>Mkt Cap</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>T12m total Distribution Yield</t>
-  </si>
-  <si>
-    <t>Est PE Ratio NxtYr</t>
-  </si>
-  <si>
-    <t>T12_FCF_YIELD</t>
-  </si>
-  <si>
-    <t>EQY_DPS_GROSS_1YR_GROWTH</t>
-  </si>
-  <si>
-    <t>T12_TOTAL_DISTRIBUTION_YIELD</t>
-  </si>
-  <si>
-    <t>PE_RATIO</t>
+    <t>BEST_EST_LONG_TERM_GROWTH</t>
+  </si>
+  <si>
+    <t>BEST_PE_NXT_YR</t>
+  </si>
+  <si>
+    <t>VOLATILITY_10D</t>
+  </si>
+  <si>
+    <t>VOLATILITY_200D</t>
+  </si>
+  <si>
+    <t>RSI_9D</t>
+  </si>
+  <si>
+    <t>RSI_30D</t>
+  </si>
+  <si>
+    <t>Est PE Ratio</t>
+  </si>
+  <si>
+    <t>Vol 10d</t>
+  </si>
+  <si>
+    <t>Vol 30d</t>
+  </si>
+  <si>
+    <t>RSI 9d</t>
+  </si>
+  <si>
+    <t>RSI 30d</t>
   </si>
 </sst>
 </file>
@@ -189,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +229,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -309,6 +366,231 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -321,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,34 +615,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -665,315 +1080,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="9"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="9.140625" style="8"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.65</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="C6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2.75</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16">
+        <v>66</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="28">
+        <v>4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="40">
+        <v>5</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="36">
+        <v>20</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="16">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="36">
+        <v>5</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="16">
+        <v>4</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="28">
+        <v>4</v>
+      </c>
+      <c r="E22" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2.75</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>66</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.85</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="3:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="I29:L52">
+    <sortCondition ref="I29:I52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
